--- a/Fund. of Engineering/HW2.xlsx
+++ b/Fund. of Engineering/HW2.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natur\Documents\College-Work\Fund. of Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A263F9-39D8-405B-BC06-89E13451D2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077E989-A93E-4924-A4F7-D548723898DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14328" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{F59E7634-3BCC-45F7-AB48-7CFE737C4127}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{F59E7634-3BCC-45F7-AB48-7CFE737C4127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="deflection">Sheet1!$G$5</definedName>
-    <definedName name="F">Sheet1!$C$7</definedName>
-    <definedName name="L">Sheet1!$C$6</definedName>
-    <definedName name="T">Sheet1!$C$4</definedName>
-    <definedName name="W">Sheet1!$C$5</definedName>
-    <definedName name="width">Sheet1!$C$5</definedName>
+    <definedName name="F">Sheet1!$C$6</definedName>
+    <definedName name="L">Sheet1!$C$5</definedName>
+    <definedName name="T">Sheet1!$C$3</definedName>
+    <definedName name="W">Sheet1!$C$4</definedName>
+    <definedName name="width">Sheet1!$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Problem 1</t>
   </si>
@@ -85,14 +85,58 @@
   </si>
   <si>
     <t>E =</t>
+  </si>
+  <si>
+    <t>Problem 2</t>
+  </si>
+  <si>
+    <t>w =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I = </t>
+  </si>
+  <si>
+    <t>L =</t>
+  </si>
+  <si>
+    <t>N/cm^2</t>
+  </si>
+  <si>
+    <t>1 sig fig -&gt;</t>
+  </si>
+  <si>
+    <t>Problem 3</t>
+  </si>
+  <si>
+    <t>F (N)</t>
+  </si>
+  <si>
+    <t>δ (cm)</t>
+  </si>
+  <si>
+    <t>Problem 4</t>
+  </si>
+  <si>
+    <t>Problem 5</t>
+  </si>
+  <si>
+    <t>Slope =</t>
+  </si>
+  <si>
+    <t>1.2E-04 * F</t>
+  </si>
+  <si>
+    <t>N/cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,17 +151,54 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,17 +206,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="7" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - Accent4" xfId="3" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -149,6 +268,1074 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deflection v</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.11902040816326531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23804081632653062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35706122448979594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47608163265306125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59510204081632656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B1A-4B99-80FB-C4639CBF2A63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1541312752"/>
+        <c:axId val="1541311920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1541312752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541311920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1541311920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Deflection</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541312752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19E72AA-60CC-479C-BE11-4704C0C81E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,121 +1635,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280640B7-C802-4515-9829-4C1BCDA1C696}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>(W*(T^3))/12</f>
         <v>3.3162749999999998E-2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.51</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>30.1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f>(F*(L^3))/(3*deflection*G3)</f>
         <v>21268064.319153268</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>30.1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="6">
         <f>G6</f>
         <v>21268064.319153268</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1">
+        <f>(C12*(C13^3))/12</f>
+        <v>7.875</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="9">
+        <f>7*10^6</f>
+        <v>7000000</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11">
+        <f>(3*G17*G13*G16)/(G15^3)</f>
+        <v>2520.5761316872427</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="12">
+        <f>((B25*$G$15^3)/(3*$G$17*$G$13))</f>
+        <v>0.11902040816326531</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <f>B25+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="C26" s="12">
+        <f>((B26*$G$15^3)/(3*$G$17*$G$13))</f>
+        <v>0.23804081632653062</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:B29" si="0">B26+1000</f>
+        <v>3000</v>
+      </c>
+      <c r="C27" s="12">
+        <f>((B27*$G$15^3)/(3*$G$17*$G$13))</f>
+        <v>0.35706122448979594</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="C28" s="12">
+        <f>((B28*$G$15^3)/(3*$G$17*$G$13))</f>
+        <v>0.47608163265306125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="C29" s="12">
+        <f>((B29*$G$15^3)/(3*$G$17*$G$13))</f>
+        <v>0.59510204081632656</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>